--- a/HW3_Excel1/HW3_113304048.xlsx
+++ b/HW3_Excel1/HW3_113304048.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12AEB4E0-B983-43F7-AD4F-7130A35250B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,13 +30,13 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
-      <extLst>
+      <extLst xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
         <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
@@ -247,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -339,7 +338,211 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -378,18 +581,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -408,19 +601,16 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>工作表1!$B$2:$B$15</c:f>
@@ -522,84 +712,58 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-462B-4053-B279-9DF258104D99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="147943424"/>
-        <c:axId val="147944960"/>
+        <c:dLbls/>
+        <c:axId val="159174656"/>
+        <c:axId val="159176960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147943424"/>
+        <c:axId val="159174656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147944960"/>
+        <c:crossAx val="159176960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147944960"/>
+        <c:axId val="159176960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147943424"/>
+        <c:crossAx val="159174656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -621,9 +785,8 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -639,14 +802,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
             <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -679,31 +837,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0926-4804-9F41-A67D6E87A529}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
           <c:showCatName val="1"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -729,7 +881,7 @@
         <xdr:cNvPr id="6" name="圖表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -765,7 +917,7 @@
         <xdr:cNvPr id="15" name="圖表 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,27 +1227,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.08984375" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1217,7 +1369,7 @@
         <v>A</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f>IF(J3&gt;=60,"pass","fail")</f>
+        <f t="shared" ref="L3:L15" si="2">IF(J3&gt;=60,"pass","fail")</f>
         <v>pass</v>
       </c>
     </row>
@@ -1259,7 +1411,7 @@
         <v>B</v>
       </c>
       <c r="L4" s="6" t="str">
-        <f t="shared" ref="L4:L15" si="2">IF(J4&gt;=60,"pass","fail")</f>
+        <f t="shared" si="2"/>
         <v>pass</v>
       </c>
     </row>
@@ -1782,11 +1934,21 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L2:L15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L15">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:L15">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
